--- a/DoAnTotNghiep/Candidate_Info.xlsx
+++ b/DoAnTotNghiep/Candidate_Info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>List of Candidate</t>
   </si>
@@ -44,70 +44,28 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Cường Nguyễn Teo</t>
+    <t>Trần Hùng Cường</t>
   </si>
   <si>
-    <t>22/05/2019</t>
+    <t>24/05/1997</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>794343226</t>
+    <t>0904422377</t>
   </si>
   <si>
-    <t>Data Analyst</t>
+    <t>Product Manager</t>
   </si>
   <si>
-    <t>5/5</t>
+    <t>17/20</t>
   </si>
   <si>
-    <t>31000</t>
+    <t>3000</t>
   </si>
   <si>
     <t>New</t>
-  </si>
-  <si>
-    <t>Võ Anh Thư</t>
-  </si>
-  <si>
-    <t>11/10/1989</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>0909323232</t>
-  </si>
-  <si>
-    <t>Senior Tester</t>
-  </si>
-  <si>
-    <t>20/20</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>Lê Nhật Tín</t>
-  </si>
-  <si>
-    <t>15/06/1997</t>
-  </si>
-  <si>
-    <t>Data Engineer</t>
-  </si>
-  <si>
-    <t>7000</t>
-  </si>
-  <si>
-    <t>Trần Nhật Tin</t>
-  </si>
-  <si>
-    <t>11/02/1997</t>
-  </si>
-  <si>
-    <t>8000</t>
   </si>
 </sst>
 </file>
@@ -158,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -221,84 +179,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
